--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.4999999999999858</v>
+        <v>-0.06845131779842006</v>
       </c>
       <c r="C2">
-        <v>-0.6999999999999886</v>
+        <v>-2.344079640195531</v>
       </c>
       <c r="D2">
-        <v>1.000000000000014</v>
+        <v>5.587651372707114E-06</v>
       </c>
       <c r="E2">
-        <v>0.5000000000000284</v>
+        <v>-0.6233623182505283</v>
       </c>
       <c r="F2">
-        <v>-2.799999999999969</v>
+        <v>4.887355777631257</v>
       </c>
       <c r="G2">
-        <v>2.842170943040401E-14</v>
+        <v>-0.07746478018816561</v>
       </c>
       <c r="H2">
-        <v>-0.1999999999999744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.223199686849668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2000000000000028</v>
+        <v>-1.844079640195545</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>0.5000055876513585</v>
       </c>
       <c r="D3">
-        <v>1.000000000000014</v>
+        <v>-0.1233623182505426</v>
       </c>
       <c r="E3">
-        <v>-2.299999999999983</v>
+        <v>5.387355777631242</v>
       </c>
       <c r="F3">
-        <v>0.5000000000000142</v>
+        <v>0.4225352198118202</v>
       </c>
       <c r="G3">
-        <v>0.3000000000000114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.2768003131503178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>1.700000000000003</v>
+        <v>0.7000055876513613</v>
       </c>
       <c r="C4">
-        <v>1.200000000000017</v>
+        <v>0.07663768174946028</v>
       </c>
       <c r="D4">
-        <v>-2.09999999999998</v>
+        <v>5.587355777631245</v>
       </c>
       <c r="E4">
-        <v>0.7000000000000171</v>
+        <v>0.622535219811823</v>
       </c>
       <c r="F4">
-        <v>0.5000000000000142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.4768003131503207</v>
+      </c>
+      <c r="G4">
+        <v>0.3526870962688803</v>
+      </c>
+      <c r="H4">
+        <v>1.126878279600263</v>
+      </c>
+      <c r="I4">
+        <v>-0.334675296103242</v>
+      </c>
+      <c r="J4">
+        <v>0.265633061926664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.4999999999999858</v>
+        <v>-1.623362318250543</v>
       </c>
       <c r="C5">
-        <v>-3.799999999999983</v>
+        <v>3.887355777631242</v>
       </c>
       <c r="D5">
-        <v>-0.9999999999999858</v>
+        <v>-1.07746478018818</v>
       </c>
       <c r="E5">
-        <v>-1.199999999999989</v>
+        <v>-1.223199686849682</v>
       </c>
       <c r="F5">
-        <v>-0.8999999999999915</v>
+        <v>-1.347312903731122</v>
       </c>
       <c r="G5">
-        <v>-1.199999999999989</v>
+        <v>-0.5731217203997403</v>
       </c>
       <c r="H5">
-        <v>-1.09999999999998</v>
+        <v>-2.034675296103245</v>
       </c>
       <c r="I5">
-        <v>-1.09999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-1.434366938073339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-3.299999999999997</v>
+        <v>4.387355777631228</v>
       </c>
       <c r="C6">
-        <v>-0.5</v>
+        <v>-0.577464780188194</v>
       </c>
       <c r="D6">
-        <v>-0.7000000000000028</v>
+        <v>-0.7231996868496964</v>
       </c>
       <c r="E6">
-        <v>-0.4000000000000057</v>
+        <v>-0.8473129037311367</v>
       </c>
       <c r="F6">
-        <v>-0.7000000000000028</v>
+        <v>-0.07312172039975451</v>
       </c>
       <c r="G6">
-        <v>-0.5999999999999943</v>
+        <v>-1.534675296103259</v>
       </c>
       <c r="H6">
-        <v>-0.5999999999999943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.934366938073353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>2.799999999999997</v>
+        <v>2.722535219811803</v>
       </c>
       <c r="C7">
-        <v>2.599999999999994</v>
+        <v>2.576800313150301</v>
       </c>
       <c r="D7">
-        <v>2.899999999999991</v>
+        <v>2.452687096268861</v>
       </c>
       <c r="E7">
-        <v>2.599999999999994</v>
+        <v>3.226878279600243</v>
       </c>
       <c r="F7">
-        <v>2.700000000000003</v>
+        <v>1.765324703896738</v>
       </c>
       <c r="G7">
-        <v>2.700000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>2.365633061926644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2000000000000028</v>
+        <v>-0.2231996868496964</v>
       </c>
       <c r="C8">
-        <v>0.09999999999999432</v>
+        <v>-0.3473129037311367</v>
       </c>
       <c r="D8">
-        <v>-0.2000000000000028</v>
+        <v>0.4268782796002455</v>
       </c>
       <c r="E8">
-        <v>-0.09999999999999432</v>
+        <v>-1.034675296103259</v>
       </c>
       <c r="F8">
-        <v>-0.09999999999999432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.434366938073353</v>
+      </c>
+      <c r="G8">
+        <v>-0.41600913674678</v>
+      </c>
+      <c r="H8">
+        <v>0.3423454266220887</v>
+      </c>
+      <c r="I8">
+        <v>-0.7919400257838731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.2999999999999971</v>
+        <v>-0.1473129037311339</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.6268782796002483</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000085</v>
+        <v>-0.8346752961032562</v>
       </c>
       <c r="E9">
-        <v>0.1000000000000085</v>
+        <v>-0.2343669380733502</v>
       </c>
       <c r="F9">
-        <v>0.2000000000000028</v>
+        <v>-0.2160091367467772</v>
       </c>
       <c r="G9">
-        <v>-0.299999999999983</v>
+        <v>0.5423454266220915</v>
       </c>
       <c r="H9">
-        <v>-0.2000000000000171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.5919400257838703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.2999999999999971</v>
+        <v>0.3268782796002512</v>
       </c>
       <c r="C10">
-        <v>-0.1999999999999886</v>
+        <v>-1.134675296103253</v>
       </c>
       <c r="D10">
-        <v>-0.1999999999999886</v>
+        <v>-0.5343669380733473</v>
       </c>
       <c r="E10">
-        <v>-0.09999999999999432</v>
+        <v>-0.5160091367467743</v>
       </c>
       <c r="F10">
-        <v>-0.5999999999999801</v>
+        <v>0.2423454266220944</v>
       </c>
       <c r="G10">
-        <v>-0.5000000000000142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.8919400257838674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.1000000000000085</v>
+        <v>-0.8346752961032562</v>
       </c>
       <c r="C11">
-        <v>0.1000000000000085</v>
+        <v>-0.2343669380733502</v>
       </c>
       <c r="D11">
-        <v>0.2000000000000028</v>
+        <v>-0.2160091367467772</v>
       </c>
       <c r="E11">
-        <v>-0.299999999999983</v>
+        <v>0.5423454266220915</v>
       </c>
       <c r="F11">
-        <v>-0.2000000000000171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.5919400257838703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.3343669380733587</v>
       </c>
       <c r="C12">
-        <v>0.09999999999999432</v>
+        <v>-0.3160091367467857</v>
       </c>
       <c r="D12">
-        <v>-0.3999999999999915</v>
+        <v>0.442345426622083</v>
       </c>
       <c r="E12">
-        <v>-0.3000000000000256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.6919400257838788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.09999999999999432</v>
+        <v>-0.3160091367467857</v>
       </c>
       <c r="C13">
-        <v>-0.3999999999999915</v>
+        <v>0.442345426622083</v>
       </c>
       <c r="D13">
-        <v>-0.3000000000000256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.6919400257838788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.4999999999999858</v>
+        <v>0.3423454266220887</v>
       </c>
       <c r="C14">
-        <v>-0.4000000000000199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.7919400257838731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.09999999999996589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.2919400257838873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.06845131779842006</v>
+        <v>-0.4999999999999858</v>
       </c>
       <c r="C2">
-        <v>-2.344079640195531</v>
+        <v>-0.6999999999999886</v>
       </c>
       <c r="D2">
-        <v>5.587651372707114E-06</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="E2">
-        <v>-0.6233623182505283</v>
+        <v>0.5000000000000284</v>
       </c>
       <c r="F2">
-        <v>4.887355777631257</v>
+        <v>-2.799999999999969</v>
       </c>
       <c r="G2">
-        <v>-0.07746478018816561</v>
+        <v>2.842170943040401E-14</v>
       </c>
       <c r="H2">
-        <v>-0.223199686849668</v>
+        <v>-0.1999999999999744</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-1.844079640195545</v>
+        <v>-0.2000000000000028</v>
       </c>
       <c r="C3">
-        <v>0.5000055876513585</v>
+        <v>1.5</v>
       </c>
       <c r="D3">
-        <v>-0.1233623182505426</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="E3">
-        <v>5.387355777631242</v>
+        <v>-2.299999999999983</v>
       </c>
       <c r="F3">
-        <v>0.4225352198118202</v>
+        <v>0.5000000000000142</v>
       </c>
       <c r="G3">
-        <v>0.2768003131503178</v>
+        <v>0.3000000000000114</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.7000055876513613</v>
+        <v>1.700000000000003</v>
       </c>
       <c r="C4">
-        <v>0.07663768174946028</v>
+        <v>1.200000000000017</v>
       </c>
       <c r="D4">
-        <v>5.587355777631245</v>
+        <v>-2.09999999999998</v>
       </c>
       <c r="E4">
-        <v>0.622535219811823</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="F4">
-        <v>0.4768003131503207</v>
+        <v>0.5000000000000142</v>
       </c>
       <c r="G4">
-        <v>0.3526870962688803</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="H4">
-        <v>1.126878279600263</v>
+        <v>0.5000000000000142</v>
       </c>
       <c r="I4">
-        <v>-0.334675296103242</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="J4">
-        <v>0.265633061926664</v>
+        <v>0.6000000000000227</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-1.623362318250543</v>
+        <v>-0.4999999999999858</v>
       </c>
       <c r="C5">
-        <v>3.887355777631242</v>
+        <v>-3.799999999999983</v>
       </c>
       <c r="D5">
-        <v>-1.07746478018818</v>
+        <v>-0.9999999999999858</v>
       </c>
       <c r="E5">
-        <v>-1.223199686849682</v>
+        <v>-1.199999999999989</v>
       </c>
       <c r="F5">
-        <v>-1.347312903731122</v>
+        <v>-0.8999999999999915</v>
       </c>
       <c r="G5">
-        <v>-0.5731217203997403</v>
+        <v>-1.199999999999989</v>
       </c>
       <c r="H5">
-        <v>-2.034675296103245</v>
+        <v>-1.09999999999998</v>
       </c>
       <c r="I5">
-        <v>-1.434366938073339</v>
+        <v>-1.09999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>4.387355777631228</v>
+        <v>-3.299999999999997</v>
       </c>
       <c r="C6">
-        <v>-0.577464780188194</v>
+        <v>-0.5</v>
       </c>
       <c r="D6">
-        <v>-0.7231996868496964</v>
+        <v>-0.7000000000000028</v>
       </c>
       <c r="E6">
-        <v>-0.8473129037311367</v>
+        <v>-0.4000000000000057</v>
       </c>
       <c r="F6">
-        <v>-0.07312172039975451</v>
+        <v>-0.7000000000000028</v>
       </c>
       <c r="G6">
-        <v>-1.534675296103259</v>
+        <v>-0.5999999999999943</v>
       </c>
       <c r="H6">
-        <v>-0.934366938073353</v>
+        <v>-0.5999999999999943</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.722535219811803</v>
+        <v>2.799999999999997</v>
       </c>
       <c r="C7">
-        <v>2.576800313150301</v>
+        <v>2.599999999999994</v>
       </c>
       <c r="D7">
-        <v>2.452687096268861</v>
+        <v>2.899999999999991</v>
       </c>
       <c r="E7">
-        <v>3.226878279600243</v>
+        <v>2.599999999999994</v>
       </c>
       <c r="F7">
-        <v>1.765324703896738</v>
+        <v>2.700000000000003</v>
       </c>
       <c r="G7">
-        <v>2.365633061926644</v>
+        <v>2.700000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2231996868496964</v>
+        <v>-0.2000000000000028</v>
       </c>
       <c r="C8">
-        <v>-0.3473129037311367</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="D8">
-        <v>0.4268782796002455</v>
+        <v>-0.2000000000000028</v>
       </c>
       <c r="E8">
-        <v>-1.034675296103259</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="F8">
-        <v>-0.434366938073353</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="G8">
-        <v>-0.41600913674678</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.3423454266220887</v>
+        <v>-0.4999999999999858</v>
       </c>
       <c r="I8">
-        <v>-0.7919400257838731</v>
+        <v>-0.4000000000000199</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.1473129037311339</v>
+        <v>0.2999999999999971</v>
       </c>
       <c r="C9">
-        <v>0.6268782796002483</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-0.8346752961032562</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="E9">
-        <v>-0.2343669380733502</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="F9">
-        <v>-0.2160091367467772</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="G9">
-        <v>0.5423454266220915</v>
+        <v>-0.299999999999983</v>
       </c>
       <c r="H9">
-        <v>-0.5919400257838703</v>
+        <v>-0.2000000000000171</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.3268782796002512</v>
+        <v>-0.2999999999999971</v>
       </c>
       <c r="C10">
-        <v>-1.134675296103253</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="D10">
-        <v>-0.5343669380733473</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="E10">
-        <v>-0.5160091367467743</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="F10">
-        <v>0.2423454266220944</v>
+        <v>-0.5999999999999801</v>
       </c>
       <c r="G10">
-        <v>-0.8919400257838674</v>
+        <v>-0.5000000000000142</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.8346752961032562</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="C11">
-        <v>-0.2343669380733502</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="D11">
-        <v>-0.2160091367467772</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="E11">
-        <v>0.5423454266220915</v>
+        <v>-0.299999999999983</v>
       </c>
       <c r="F11">
-        <v>-0.5919400257838703</v>
+        <v>-0.2000000000000171</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.3343669380733587</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-0.3160091367467857</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="D12">
-        <v>0.442345426622083</v>
+        <v>-0.3999999999999915</v>
       </c>
       <c r="E12">
-        <v>-0.6919400257838788</v>
+        <v>-0.3000000000000256</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.3160091367467857</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="C13">
-        <v>0.442345426622083</v>
+        <v>-0.3999999999999915</v>
       </c>
       <c r="D13">
-        <v>-0.6919400257838788</v>
+        <v>-0.3000000000000256</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.3423454266220887</v>
+        <v>-0.4999999999999858</v>
       </c>
       <c r="C14">
-        <v>-0.7919400257838731</v>
+        <v>-0.4000000000000199</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.2919400257838873</v>
+        <v>0.09999999999996589</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.314989201928938</v>
+      </c>
+      <c r="C2">
+        <v>-0.941346460431248</v>
+      </c>
+      <c r="D2">
+        <v>-0.8683624631302393</v>
+      </c>
+      <c r="E2">
+        <v>0.01720404143503628</v>
+      </c>
+      <c r="F2">
+        <v>-0.3100538206824979</v>
+      </c>
+      <c r="G2">
+        <v>-0.6353708564410852</v>
+      </c>
+      <c r="H2">
+        <v>-0.1761128276725259</v>
+      </c>
+      <c r="I2">
+        <v>0.1402096942404682</v>
+      </c>
+      <c r="J2">
+        <v>-1.129426994028932</v>
+      </c>
+      <c r="K2">
+        <v>1.033455929596315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.4466267387986989</v>
+      </c>
+      <c r="C3">
+        <v>1.332193243363974</v>
+      </c>
+      <c r="D3">
+        <v>1.00493538124644</v>
+      </c>
+      <c r="E3">
+        <v>0.679618345487853</v>
+      </c>
+      <c r="F3">
+        <v>1.138876374256412</v>
+      </c>
+      <c r="G3">
+        <v>1.455198896169406</v>
+      </c>
+      <c r="H3">
+        <v>0.1855622079000059</v>
+      </c>
+      <c r="I3">
+        <v>2.348445131525253</v>
+      </c>
+      <c r="J3">
+        <v>0.136465539725549</v>
+      </c>
+      <c r="K3">
+        <v>1.435026113093826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.5583086424477415</v>
+      </c>
+      <c r="C4">
+        <v>0.2329916066891542</v>
+      </c>
+      <c r="D4">
+        <v>0.6922496354577135</v>
+      </c>
+      <c r="E4">
+        <v>1.008572157370708</v>
+      </c>
+      <c r="F4">
+        <v>-0.261064530898693</v>
+      </c>
+      <c r="G4">
+        <v>1.901818392726554</v>
+      </c>
+      <c r="H4">
+        <v>-0.3101611990731499</v>
+      </c>
+      <c r="I4">
+        <v>0.9883993742951276</v>
+      </c>
+      <c r="J4">
+        <v>-0.479005331071932</v>
+      </c>
+      <c r="K4">
+        <v>0.2184614155647608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.133940993009972</v>
+      </c>
+      <c r="C5">
+        <v>0.4502635149229661</v>
+      </c>
+      <c r="D5">
+        <v>-0.8193731733464344</v>
+      </c>
+      <c r="E5">
+        <v>1.343509750278812</v>
+      </c>
+      <c r="F5">
+        <v>-0.8684698415208914</v>
+      </c>
+      <c r="G5">
+        <v>0.4300907318473861</v>
+      </c>
+      <c r="H5">
+        <v>-1.037313973519673</v>
+      </c>
+      <c r="I5">
+        <v>-0.3398472268829806</v>
+      </c>
+      <c r="J5">
+        <v>-0.3006781143542696</v>
+      </c>
+      <c r="K5">
+        <v>-0.326362468422829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.9533141663564064</v>
+      </c>
+      <c r="C6">
+        <v>1.20956875726884</v>
+      </c>
+      <c r="D6">
+        <v>-1.002410834530863</v>
+      </c>
+      <c r="E6">
+        <v>0.2961497388374141</v>
+      </c>
+      <c r="F6">
+        <v>-1.171254966529645</v>
+      </c>
+      <c r="G6">
+        <v>-0.4737882198929526</v>
+      </c>
+      <c r="H6">
+        <v>-0.4346191073642416</v>
+      </c>
+      <c r="I6">
+        <v>-0.460303461432801</v>
+      </c>
+      <c r="J6">
+        <v>-0.07622823957730421</v>
+      </c>
+      <c r="K6">
+        <v>0.3667427427061511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.0490966681744569</v>
+      </c>
+      <c r="C7">
+        <v>1.249463905193821</v>
+      </c>
+      <c r="D7">
+        <v>-0.217940800173239</v>
+      </c>
+      <c r="E7">
+        <v>0.4795259464634538</v>
+      </c>
+      <c r="F7">
+        <v>0.5186950589921648</v>
+      </c>
+      <c r="G7">
+        <v>0.4930107049236054</v>
+      </c>
+      <c r="H7">
+        <v>0.8770859267791022</v>
+      </c>
+      <c r="I7">
+        <v>1.320056909062558</v>
+      </c>
+      <c r="J7">
+        <v>0.6986659511651963</v>
+      </c>
+      <c r="K7">
+        <v>0.9305710614920171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.1688441319987821</v>
+      </c>
+      <c r="C8">
+        <v>0.5286226146379107</v>
+      </c>
+      <c r="D8">
+        <v>0.5677917271666217</v>
+      </c>
+      <c r="E8">
+        <v>0.5421073730980623</v>
+      </c>
+      <c r="F8">
+        <v>0.9261825949535591</v>
+      </c>
+      <c r="G8">
+        <v>1.369153577237014</v>
+      </c>
+      <c r="H8">
+        <v>0.7477626193396532</v>
+      </c>
+      <c r="I8">
+        <v>0.979667729666474</v>
+      </c>
+      <c r="J8">
+        <v>1.262068277267502</v>
+      </c>
+      <c r="K8">
+        <v>1.333813846537154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.7366358591654039</v>
+      </c>
+      <c r="C9">
+        <v>0.7109515050968445</v>
+      </c>
+      <c r="D9">
+        <v>1.095026726952341</v>
+      </c>
+      <c r="E9">
+        <v>1.537997709235797</v>
+      </c>
+      <c r="F9">
+        <v>0.9166067513384353</v>
+      </c>
+      <c r="G9">
+        <v>1.148511861665256</v>
+      </c>
+      <c r="H9">
+        <v>1.430912409266285</v>
+      </c>
+      <c r="I9">
+        <v>1.502657978535936</v>
+      </c>
+      <c r="J9">
+        <v>0.8365638983302266</v>
+      </c>
+      <c r="K9">
+        <v>1.634420597563491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.3583908677869374</v>
+      </c>
+      <c r="C10">
+        <v>0.8013618500703927</v>
+      </c>
+      <c r="D10">
+        <v>0.1799708921730314</v>
+      </c>
+      <c r="E10">
+        <v>0.4118760024998522</v>
+      </c>
+      <c r="F10">
+        <v>0.6942765501008807</v>
+      </c>
+      <c r="G10">
+        <v>0.7660221193705326</v>
+      </c>
+      <c r="H10">
+        <v>0.09992803916482268</v>
+      </c>
+      <c r="I10">
+        <v>0.8977847383980873</v>
+      </c>
+      <c r="J10">
+        <v>0.1275780457620641</v>
+      </c>
+      <c r="K10">
+        <v>0.1070071712705669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.178419975613906</v>
+      </c>
+      <c r="C11">
+        <v>0.0534851347129148</v>
+      </c>
+      <c r="D11">
+        <v>0.3358856823139434</v>
+      </c>
+      <c r="E11">
+        <v>0.4076312515835952</v>
+      </c>
+      <c r="F11">
+        <v>-0.2584628286221147</v>
+      </c>
+      <c r="G11">
+        <v>0.53939387061115</v>
+      </c>
+      <c r="H11">
+        <v>-0.2308128220248733</v>
+      </c>
+      <c r="I11">
+        <v>-0.2513836965163705</v>
+      </c>
+      <c r="J11">
+        <v>-0.4425215418547026</v>
+      </c>
+      <c r="K11">
+        <v>-0.1313571514700555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.5143056579278494</v>
+      </c>
+      <c r="C12">
+        <v>0.5860512271975012</v>
+      </c>
+      <c r="D12">
+        <v>-0.08004285300820868</v>
+      </c>
+      <c r="E12">
+        <v>0.717813846225056</v>
+      </c>
+      <c r="F12">
+        <v>-0.05239284641096725</v>
+      </c>
+      <c r="G12">
+        <v>-0.0729637209024645</v>
+      </c>
+      <c r="H12">
+        <v>-0.2641015662407966</v>
+      </c>
+      <c r="I12">
+        <v>0.04706282414385055</v>
+      </c>
+      <c r="J12">
+        <v>-0.305631967414115</v>
+      </c>
+      <c r="K12">
+        <v>-0.2869323754744925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.5943485109360581</v>
+      </c>
+      <c r="C13">
+        <v>0.2035081882972065</v>
+      </c>
+      <c r="D13">
+        <v>-0.5666985043388166</v>
+      </c>
+      <c r="E13">
+        <v>-0.5872693788303139</v>
+      </c>
+      <c r="F13">
+        <v>-0.7784072241686459</v>
+      </c>
+      <c r="G13">
+        <v>-0.4672428337839989</v>
+      </c>
+      <c r="H13">
+        <v>-0.8199376253419643</v>
+      </c>
+      <c r="I13">
+        <v>-0.8012380334023419</v>
+      </c>
+      <c r="J13">
+        <v>-1.39648317384345</v>
+      </c>
+      <c r="K13">
+        <v>-1.013969170199914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.02765000659724143</v>
+      </c>
+      <c r="C14">
+        <v>0.007079132105744179</v>
+      </c>
+      <c r="D14">
+        <v>-0.1840587132325879</v>
+      </c>
+      <c r="E14">
+        <v>0.1271056771520592</v>
+      </c>
+      <c r="F14">
+        <v>-0.2255891144059063</v>
+      </c>
+      <c r="G14">
+        <v>-0.2068895224662838</v>
+      </c>
+      <c r="H14">
+        <v>-0.8021346629073915</v>
+      </c>
+      <c r="I14">
+        <v>-0.419620659263856</v>
+      </c>
+      <c r="J14">
+        <v>-0.01624058431245601</v>
+      </c>
+      <c r="K14">
+        <v>-0.6988898205083987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.2117087198298293</v>
+      </c>
+      <c r="C15">
+        <v>0.0994556705548178</v>
+      </c>
+      <c r="D15">
+        <v>-0.2532391210031477</v>
+      </c>
+      <c r="E15">
+        <v>-0.2345395290635253</v>
+      </c>
+      <c r="F15">
+        <v>-0.8297846695046329</v>
+      </c>
+      <c r="G15">
+        <v>-0.4472706658610974</v>
+      </c>
+      <c r="H15">
+        <v>-0.04389059090969744</v>
+      </c>
+      <c r="I15">
+        <v>-0.72653982710564</v>
+      </c>
+      <c r="J15">
+        <v>-0.5340400590977907</v>
+      </c>
+      <c r="K15">
+        <v>0.1573025399601278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.04153040117331841</v>
+      </c>
+      <c r="C16">
+        <v>-0.02283080923369596</v>
+      </c>
+      <c r="D16">
+        <v>-0.6180759496748036</v>
+      </c>
+      <c r="E16">
+        <v>-0.2355619460312681</v>
+      </c>
+      <c r="F16">
+        <v>0.1678181289201319</v>
+      </c>
+      <c r="G16">
+        <v>-0.5148311072758107</v>
+      </c>
+      <c r="H16">
+        <v>-0.3223313392679614</v>
+      </c>
+      <c r="I16">
+        <v>0.3690112597899571</v>
+      </c>
+      <c r="J16">
+        <v>0.2181149356561036</v>
+      </c>
+      <c r="K16">
+        <v>0.469101621011319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.5765455485014852</v>
+      </c>
+      <c r="C17">
+        <v>-0.1940315448579497</v>
+      </c>
+      <c r="D17">
+        <v>0.2093485300934503</v>
+      </c>
+      <c r="E17">
+        <v>-0.4733007061024923</v>
+      </c>
+      <c r="F17">
+        <v>-0.280800938094643</v>
+      </c>
+      <c r="G17">
+        <v>0.4105416609632755</v>
+      </c>
+      <c r="H17">
+        <v>0.259645336829422</v>
+      </c>
+      <c r="I17">
+        <v>0.5106320221846374</v>
+      </c>
+      <c r="J17">
+        <v>0.7141857632352213</v>
+      </c>
+      <c r="K17">
+        <v>0.1785764481418113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.7858940785949355</v>
+      </c>
+      <c r="C18">
+        <v>0.1032448423989929</v>
+      </c>
+      <c r="D18">
+        <v>0.2957446104068422</v>
+      </c>
+      <c r="E18">
+        <v>0.9870872094647607</v>
+      </c>
+      <c r="F18">
+        <v>0.8361908853309072</v>
+      </c>
+      <c r="G18">
+        <v>1.087177570686123</v>
+      </c>
+      <c r="H18">
+        <v>1.290731311736707</v>
+      </c>
+      <c r="I18">
+        <v>0.7551219966432965</v>
+      </c>
+      <c r="J18">
+        <v>1.779450061063443</v>
+      </c>
+      <c r="K18">
+        <v>0.6699810209925088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.4901494681880933</v>
+      </c>
+      <c r="C19">
+        <v>0.2011931308698252</v>
+      </c>
+      <c r="D19">
+        <v>0.0502968067359717</v>
+      </c>
+      <c r="E19">
+        <v>0.3012834920911871</v>
+      </c>
+      <c r="F19">
+        <v>0.504837233141771</v>
+      </c>
+      <c r="G19">
+        <v>-0.030772081951639</v>
+      </c>
+      <c r="H19">
+        <v>0.9935559824685072</v>
+      </c>
+      <c r="I19">
+        <v>-0.1159130576024267</v>
+      </c>
+      <c r="J19">
+        <v>0.2694885089849095</v>
+      </c>
+      <c r="K19">
+        <v>-1.158583334838213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.5404462749240651</v>
+      </c>
+      <c r="C20">
+        <v>0.7914329602792805</v>
+      </c>
+      <c r="D20">
+        <v>0.9949867013298643</v>
+      </c>
+      <c r="E20">
+        <v>0.4593773862364543</v>
+      </c>
+      <c r="F20">
+        <v>1.483705450656601</v>
+      </c>
+      <c r="G20">
+        <v>0.3742364105856666</v>
+      </c>
+      <c r="H20">
+        <v>0.7596379771730029</v>
+      </c>
+      <c r="I20">
+        <v>-0.6684338666501193</v>
+      </c>
+      <c r="J20">
+        <v>1.259637977173003</v>
+      </c>
+      <c r="K20">
+        <v>0.4573462124442216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.4545404264057993</v>
+      </c>
+      <c r="C21">
+        <v>-0.0810688886876107</v>
+      </c>
+      <c r="D21">
+        <v>0.9432591757325355</v>
+      </c>
+      <c r="E21">
+        <v>-0.1662098643383984</v>
+      </c>
+      <c r="F21">
+        <v>0.2191917022489378</v>
+      </c>
+      <c r="G21">
+        <v>-1.208880141574184</v>
+      </c>
+      <c r="H21">
+        <v>0.7191917022489378</v>
+      </c>
+      <c r="I21">
+        <v>-0.08310006247984342</v>
+      </c>
+      <c r="J21">
+        <v>-0.3356921906641332</v>
+      </c>
+      <c r="K21">
+        <v>0.06972798083589293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.4887187493267362</v>
+      </c>
+      <c r="C22">
+        <v>-0.6207502907441977</v>
+      </c>
+      <c r="D22">
+        <v>-0.2353487241568615</v>
+      </c>
+      <c r="E22">
+        <v>-1.663420567979984</v>
+      </c>
+      <c r="F22">
+        <v>0.2646512758431385</v>
+      </c>
+      <c r="G22">
+        <v>-0.5376404888856428</v>
+      </c>
+      <c r="H22">
+        <v>-0.7902326170699325</v>
+      </c>
+      <c r="I22">
+        <v>-0.3848124455699064</v>
+      </c>
+      <c r="J22">
+        <v>-0.2353487241568615</v>
+      </c>
+      <c r="K22">
+        <v>-1.4855337685689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.08514097565078771</v>
+      </c>
+      <c r="C23">
+        <v>0.3002605909365485</v>
+      </c>
+      <c r="D23">
+        <v>-1.127811252886574</v>
+      </c>
+      <c r="E23">
+        <v>0.8002605909365486</v>
+      </c>
+      <c r="F23">
+        <v>-0.002031173792232721</v>
+      </c>
+      <c r="G23">
+        <v>-0.2546233019765225</v>
+      </c>
+      <c r="H23">
+        <v>0.1507968695235036</v>
+      </c>
+      <c r="I23">
+        <v>0.3002605909365485</v>
+      </c>
+      <c r="J23">
+        <v>-0.9499244534754896</v>
+      </c>
+      <c r="K23">
+        <v>0.1502605919365436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.7240674734835977</v>
+      </c>
+      <c r="C24">
+        <v>-2.15213931730672</v>
+      </c>
+      <c r="D24">
+        <v>-0.2240674734835977</v>
+      </c>
+      <c r="E24">
+        <v>-1.026359238212379</v>
+      </c>
+      <c r="F24">
+        <v>-1.278951366396669</v>
+      </c>
+      <c r="G24">
+        <v>-0.8735311948966427</v>
+      </c>
+      <c r="H24">
+        <v>-0.7240674734835977</v>
+      </c>
+      <c r="I24">
+        <v>-1.974252517895636</v>
+      </c>
+      <c r="J24">
+        <v>-0.8740674724836026</v>
+      </c>
+      <c r="K24">
+        <v>-1.224067473483615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-1.042670277235786</v>
+      </c>
+      <c r="C25">
+        <v>0.8854015665873363</v>
+      </c>
+      <c r="D25">
+        <v>0.08310980185855499</v>
+      </c>
+      <c r="E25">
+        <v>-0.1694823263257348</v>
+      </c>
+      <c r="F25">
+        <v>0.2359378451742913</v>
+      </c>
+      <c r="G25">
+        <v>0.3854015665873362</v>
+      </c>
+      <c r="H25">
+        <v>-0.8647834778247019</v>
+      </c>
+      <c r="I25">
+        <v>0.2354015675873313</v>
+      </c>
+      <c r="J25">
+        <v>-0.1145984334126808</v>
+      </c>
+      <c r="K25">
+        <v>-0.1145984334126808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>-0.3022917647287812</v>
+      </c>
+      <c r="D26">
+        <v>-0.5548838929130711</v>
+      </c>
+      <c r="E26">
+        <v>-0.1494637214130449</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>-1.250185044412038</v>
+      </c>
+      <c r="H26">
+        <v>-0.1499999990000049</v>
+      </c>
+      <c r="I26">
+        <v>-0.5000000000000171</v>
+      </c>
+      <c r="J26">
+        <v>-0.5000000000000171</v>
+      </c>
+      <c r="K26">
+        <v>-0.5999999999999972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1.125780079094341</v>
+      </c>
+      <c r="C27">
+        <v>0.8731879509100511</v>
+      </c>
+      <c r="D27">
+        <v>1.278608122410077</v>
+      </c>
+      <c r="E27">
+        <v>1.428071843823122</v>
+      </c>
+      <c r="F27">
+        <v>0.177886799411084</v>
+      </c>
+      <c r="G27">
+        <v>1.278071844823117</v>
+      </c>
+      <c r="H27">
+        <v>0.928071843823105</v>
+      </c>
+      <c r="I27">
+        <v>0.928071843823105</v>
+      </c>
+      <c r="J27">
+        <v>0.8280718438231249</v>
+      </c>
+      <c r="K27">
+        <v>2.428071843823119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-1.054883892913071</v>
+      </c>
+      <c r="C28">
+        <v>-0.6494637214130449</v>
+      </c>
+      <c r="D28">
+        <v>-0.5</v>
+      </c>
+      <c r="E28">
+        <v>-1.750185044412038</v>
+      </c>
+      <c r="F28">
+        <v>-0.6499999990000049</v>
+      </c>
+      <c r="G28">
+        <v>-1.000000000000017</v>
+      </c>
+      <c r="H28">
+        <v>-1.000000000000017</v>
+      </c>
+      <c r="I28">
+        <v>-1.099999999999997</v>
+      </c>
+      <c r="J28">
+        <v>0.4999999999999972</v>
+      </c>
+      <c r="K28">
+        <v>-0.7999999999999858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.1528280433157364</v>
+      </c>
+      <c r="C29">
+        <v>0.3022917647287812</v>
+      </c>
+      <c r="D29">
+        <v>-0.9478932796832569</v>
+      </c>
+      <c r="E29">
+        <v>0.1522917657287763</v>
+      </c>
+      <c r="F29">
+        <v>-0.1977082352712358</v>
+      </c>
+      <c r="G29">
+        <v>-0.1977082352712358</v>
+      </c>
+      <c r="H29">
+        <v>-0.2977082352712159</v>
+      </c>
+      <c r="I29">
+        <v>1.302291764728778</v>
+      </c>
+      <c r="J29">
+        <v>0.002291764728795442</v>
+      </c>
+      <c r="K29">
+        <v>0.5022917647287528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.5548838929130711</v>
+      </c>
+      <c r="C30">
+        <v>-0.6953011514989671</v>
+      </c>
+      <c r="D30">
+        <v>0.4048838939130661</v>
+      </c>
+      <c r="E30">
+        <v>0.05488389291305396</v>
+      </c>
+      <c r="F30">
+        <v>0.05488389291305396</v>
+      </c>
+      <c r="G30">
+        <v>-0.04511610708692615</v>
+      </c>
+      <c r="H30">
+        <v>1.554883892913068</v>
+      </c>
+      <c r="I30">
+        <v>0.2548838929130852</v>
+      </c>
+      <c r="J30">
+        <v>0.7548838929130426</v>
+      </c>
+      <c r="K30">
+        <v>0.2548838929130568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-1.100721322998993</v>
+      </c>
+      <c r="C31">
+        <v>-0.00053627758696001</v>
+      </c>
+      <c r="D31">
+        <v>-0.3505362785869722</v>
+      </c>
+      <c r="E31">
+        <v>-0.3505362785869722</v>
+      </c>
+      <c r="F31">
+        <v>-0.4505362785869523</v>
+      </c>
+      <c r="G31">
+        <v>1.149463721413042</v>
+      </c>
+      <c r="H31">
+        <v>-0.1505362785869409</v>
+      </c>
+      <c r="I31">
+        <v>0.3494637214130165</v>
+      </c>
+      <c r="J31">
+        <v>-0.1505362785869693</v>
+      </c>
+      <c r="K31">
+        <v>-0.3505362785869722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-0.1499999990000049</v>
+      </c>
+      <c r="C32">
+        <v>-0.5000000000000171</v>
+      </c>
+      <c r="D32">
+        <v>-0.5000000000000171</v>
+      </c>
+      <c r="E32">
+        <v>-0.5999999999999972</v>
+      </c>
+      <c r="F32">
+        <v>0.9999999999999971</v>
+      </c>
+      <c r="G32">
+        <v>-0.2999999999999858</v>
+      </c>
+      <c r="H32">
+        <v>0.1999999999999716</v>
+      </c>
+      <c r="I32">
+        <v>-0.3000000000000142</v>
+      </c>
+      <c r="J32">
+        <v>-0.5000000000000171</v>
+      </c>
+      <c r="K32">
+        <v>1.199999999999986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.3500000010000122</v>
+      </c>
+      <c r="C33">
+        <v>-0.3500000010000122</v>
+      </c>
+      <c r="D33">
+        <v>-0.4500000009999923</v>
+      </c>
+      <c r="E33">
+        <v>1.149999999000002</v>
+      </c>
+      <c r="F33">
+        <v>-0.1500000009999809</v>
+      </c>
+      <c r="G33">
+        <v>0.3499999989999765</v>
+      </c>
+      <c r="H33">
+        <v>-0.1500000010000093</v>
+      </c>
+      <c r="I33">
+        <v>-0.3500000010000122</v>
+      </c>
+      <c r="J33">
+        <v>1.349999998999991</v>
+      </c>
+      <c r="K33">
+        <v>0.8499999990000049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>-0.0999999999999801</v>
+      </c>
+      <c r="D34">
+        <v>1.500000000000014</v>
+      </c>
+      <c r="E34">
+        <v>0.2000000000000313</v>
+      </c>
+      <c r="F34">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="G34">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="J34">
+        <v>1.200000000000017</v>
+      </c>
+      <c r="K34">
+        <v>-2.09999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-0.0999999999999801</v>
+      </c>
+      <c r="C35">
+        <v>1.500000000000014</v>
+      </c>
+      <c r="D35">
+        <v>0.2000000000000313</v>
+      </c>
+      <c r="E35">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="F35">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="I35">
+        <v>1.200000000000017</v>
+      </c>
+      <c r="J35">
+        <v>-2.09999999999998</v>
+      </c>
+      <c r="K35">
+        <v>0.7000000000000171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="C36">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="D36">
+        <v>0.7999999999999687</v>
+      </c>
+      <c r="E36">
+        <v>0.2999999999999829</v>
+      </c>
+      <c r="F36">
+        <v>0.0999999999999801</v>
+      </c>
+      <c r="G36">
+        <v>1.799999999999983</v>
+      </c>
+      <c r="H36">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="I36">
+        <v>-2</v>
+      </c>
+      <c r="J36">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="K36">
+        <v>0.5999999999999943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-1.299999999999983</v>
+      </c>
+      <c r="C37">
+        <v>-0.8000000000000256</v>
+      </c>
+      <c r="D37">
+        <v>-1.300000000000011</v>
+      </c>
+      <c r="E37">
+        <v>-1.500000000000014</v>
+      </c>
+      <c r="F37">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="G37">
+        <v>-0.2999999999999972</v>
+      </c>
+      <c r="H37">
+        <v>-3.599999999999994</v>
+      </c>
+      <c r="I37">
+        <v>-0.7999999999999972</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>-0.7000000000000028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0.4999999999999574</v>
+      </c>
+      <c r="C38">
+        <v>-2.842170943040401E-14</v>
+      </c>
+      <c r="D38">
+        <v>-0.2000000000000313</v>
+      </c>
+      <c r="E38">
+        <v>1.499999999999972</v>
+      </c>
+      <c r="F38">
+        <v>0.9999999999999858</v>
+      </c>
+      <c r="G38">
+        <v>-2.300000000000011</v>
+      </c>
+      <c r="H38">
+        <v>0.4999999999999858</v>
+      </c>
+      <c r="I38">
+        <v>0.299999999999983</v>
+      </c>
+      <c r="J38">
+        <v>0.5999999999999801</v>
+      </c>
+      <c r="K38">
+        <v>0.299999999999983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-0.4999999999999858</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-0.6999999999999886</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>1.000000000000014</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>0.5000000000000284</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>-2.799999999999969</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>-0.1999999999999744</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="J39">
+        <v>-0.1999999999999744</v>
+      </c>
+      <c r="K39">
+        <v>-0.09999999999996589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>1.5</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>1.000000000000014</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>-2.299999999999983</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.5000000000000142</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>0.3000000000000114</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="I40">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="J40">
+        <v>0.4000000000000199</v>
+      </c>
+      <c r="K40">
+        <v>0.4000000000000199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>1.700000000000003</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>1.200000000000017</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>-2.09999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.7000000000000171</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.5000000000000142</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.8000000000000114</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>0.5000000000000142</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.6000000000000227</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>0.6000000000000227</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>0.7000000000000171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.4999999999999858</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>-3.799999999999983</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>-0.9999999999999858</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>-1.199999999999989</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-0.8999999999999915</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>-1.199999999999989</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>-1.09999999999998</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>-1.09999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>-0.9999999999999858</v>
+      </c>
+      <c r="K42">
+        <v>-1.499999999999972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>-3.299999999999997</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>-0.5</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>-0.7000000000000028</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-0.7000000000000028</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>-0.5999999999999943</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-0.5999999999999943</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>-0.5</v>
+      </c>
+      <c r="J43">
+        <v>-0.9999999999999858</v>
+      </c>
+      <c r="K43">
+        <v>-0.9000000000000199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>2.799999999999997</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>2.599999999999994</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>2.899999999999991</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>2.599999999999994</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>2.700000000000003</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>2.700000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>2.799999999999997</v>
+      </c>
+      <c r="I44">
+        <v>2.300000000000011</v>
+      </c>
+      <c r="J44">
+        <v>2.399999999999977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.09999999999999432</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>-0.4999999999999858</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-0.4000000000000199</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.2999999999999971</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.1000000000000085</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>0.1000000000000085</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>0.2000000000000028</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-0.299999999999983</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-0.2000000000000171</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.2999999999999971</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.5999999999999801</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.5000000000000142</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.1000000000000085</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>0.1000000000000085</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>0.2000000000000028</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.299999999999983</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.2000000000000171</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>0.09999999999999432</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.3999999999999915</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.3000000000000256</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>0.09999999999999432</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.3999999999999915</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.3000000000000256</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.4999999999999858</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.4000000000000199</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>0.09999999999996589</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.5624965308044096</v>
+      </c>
+      <c r="C2">
         <v>-1.314989201928938</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.941346460431248</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.8683624631302393</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.01720404143503628</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.3100538206824979</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.6353708564410852</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.1761128276725259</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1402096942404682</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-1.129426994028932</v>
-      </c>
-      <c r="K2">
-        <v>1.033455929596315</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.3736427414976902</v>
+      </c>
+      <c r="C3">
         <v>0.4466267387986989</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.332193243363974</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.00493538124644</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.679618345487853</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.138876374256412</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.455198896169406</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1855622079000059</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.348445131525253</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.136465539725549</v>
-      </c>
-      <c r="K3">
-        <v>1.435026113093826</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.8855665045652756</v>
+      </c>
+      <c r="C4">
         <v>0.5583086424477415</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2329916066891542</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.6922496354577135</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.008572157370708</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.261064530898693</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.901818392726554</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.3101611990731499</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.9883993742951276</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.479005331071932</v>
-      </c>
-      <c r="K4">
-        <v>0.2184614155647608</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-0.3253170357585873</v>
+      </c>
+      <c r="C5">
         <v>0.133940993009972</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.4502635149229661</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.8193731733464344</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.343509750278812</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.8684698415208914</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.4300907318473861</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-1.037313973519673</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.3398472268829806</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.3006781143542696</v>
-      </c>
-      <c r="K5">
-        <v>-0.326362468422829</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.3163225219129941</v>
+      </c>
+      <c r="C6">
         <v>-0.9533141663564064</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.20956875726884</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-1.002410834530863</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.2961497388374141</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-1.171254966529645</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.4737882198929526</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.4346191073642416</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.460303461432801</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.07622823957730421</v>
-      </c>
-      <c r="K6">
-        <v>0.3667427427061511</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>2.162882923625247</v>
+      </c>
+      <c r="C7">
         <v>-0.0490966681744569</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.249463905193821</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.217940800173239</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.4795259464634538</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.5186950589921648</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.4930107049236054</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.8770859267791022</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.320056909062558</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.6986659511651963</v>
-      </c>
-      <c r="K7">
-        <v>0.9305710614920171</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>1.298560573368277</v>
+      </c>
+      <c r="C8">
         <v>-0.1688441319987821</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.5286226146379107</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.5677917271666217</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.5421073730980623</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.9261825949535591</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.369153577237014</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.7477626193396532</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.979667729666474</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.262068277267502</v>
-      </c>
-      <c r="K8">
-        <v>1.333813846537154</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.6974667466366928</v>
+      </c>
+      <c r="C9">
         <v>0.7366358591654039</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.7109515050968445</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.095026726952341</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.537997709235797</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.9166067513384353</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.148511861665256</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.430912409266285</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.502657978535936</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.8365638983302266</v>
-      </c>
-      <c r="K9">
-        <v>1.634420597563491</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.0256843540685594</v>
+      </c>
+      <c r="C10">
         <v>0.3583908677869374</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.8013618500703927</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.1799708921730314</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.4118760024998522</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.6942765501008807</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.7660221193705326</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.09992803916482268</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.8977847383980873</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.1275780457620641</v>
-      </c>
-      <c r="K10">
-        <v>0.1070071712705669</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.4429709822834553</v>
+      </c>
+      <c r="C11">
         <v>-0.178419975613906</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.0534851347129148</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.3358856823139434</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.4076312515835952</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.2584628286221147</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.53939387061115</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.2308128220248733</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.2513836965163705</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.4425215418547026</v>
-      </c>
-      <c r="K11">
-        <v>-0.1313571514700555</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.2319051103268208</v>
+      </c>
+      <c r="C12">
         <v>0.5143056579278494</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.5860512271975012</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.08004285300820868</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.717813846225056</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.05239284641096725</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.0729637209024645</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.2641015662407966</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.04706282414385055</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.305631967414115</v>
-      </c>
-      <c r="K12">
-        <v>-0.2869323754744925</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.07174556926965178</v>
+      </c>
+      <c r="C13">
         <v>-0.5943485109360581</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.2035081882972065</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.5666985043388166</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.5872693788303139</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.7784072241686459</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.4672428337839989</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.8199376253419643</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.8012380334023419</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-1.39648317384345</v>
-      </c>
-      <c r="K13">
-        <v>-1.013969170199914</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.7978566992332646</v>
+      </c>
+      <c r="C14">
         <v>0.02765000659724143</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.007079132105744179</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.1840587132325879</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.1271056771520592</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.2255891144059063</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.2068895224662838</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.8021346629073915</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.419620659263856</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.01624058431245601</v>
-      </c>
-      <c r="K14">
-        <v>-0.6988898205083987</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.02057087449149725</v>
+      </c>
+      <c r="C15">
         <v>-0.2117087198298293</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.0994556705548178</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.2532391210031477</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.2345395290635253</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.8297846695046329</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.4472706658610974</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.04389059090969744</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.72653982710564</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.5340400590977907</v>
-      </c>
-      <c r="K15">
-        <v>0.1573025399601278</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.3111643903846471</v>
+      </c>
+      <c r="C16">
         <v>-0.04153040117331841</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.02283080923369596</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.6180759496748036</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.2355619460312681</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.1678181289201319</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.5148311072758107</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.3223313392679614</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.3690112597899571</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.2181149356561036</v>
-      </c>
-      <c r="K16">
-        <v>0.469101621011319</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.01869959193962245</v>
+      </c>
+      <c r="C17">
         <v>-0.5765455485014852</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.1940315448579497</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.2093485300934503</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.4733007061024923</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.280800938094643</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.4105416609632755</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.259645336829422</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.5106320221846374</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.7141857632352213</v>
-      </c>
-      <c r="K17">
-        <v>0.1785764481418113</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.3825140036435355</v>
+      </c>
+      <c r="C18">
         <v>0.7858940785949355</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.1032448423989929</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.2957446104068422</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.9870872094647607</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.8361908853309072</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.087177570686123</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.290731311736707</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.7551219966432965</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.779450061063443</v>
-      </c>
-      <c r="K18">
-        <v>0.6699810209925088</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.6826492361959426</v>
+      </c>
+      <c r="C19">
         <v>-0.4901494681880933</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.2011931308698252</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.0502968067359717</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.3012834920911871</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.504837233141771</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.030772081951639</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.9935559824685072</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.1159130576024267</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.2694885089849095</v>
-      </c>
-      <c r="K19">
-        <v>-1.158583334838213</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.6913425990579185</v>
+      </c>
+      <c r="C20">
         <v>0.5404462749240651</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.7914329602792805</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.9949867013298643</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.4593773862364543</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.483705450656601</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.3742364105856666</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.7596379771730029</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.6684338666501193</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.259637977173003</v>
-      </c>
-      <c r="K20">
-        <v>0.4573462124442216</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.2509866853552154</v>
+      </c>
+      <c r="C21">
         <v>0.4545404264057993</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.0810688886876107</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.9432591757325355</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.1662098643383984</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.2191917022489378</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-1.208880141574184</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.7191917022489378</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-0.08310006247984342</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.3356921906641332</v>
-      </c>
-      <c r="K21">
-        <v>0.06972798083589293</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.53560931509341</v>
+      </c>
+      <c r="C22">
         <v>0.4887187493267362</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.6207502907441977</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.2353487241568615</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1.663420567979984</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2646512758431385</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.5376404888856428</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.7902326170699325</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.3848124455699064</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-0.2353487241568615</v>
-      </c>
-      <c r="K22">
-        <v>-1.4855337685689</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>1.024328064420146</v>
+      </c>
+      <c r="C23">
         <v>-0.08514097565078771</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.3002605909365485</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-1.127811252886574</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.8002605909365486</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.002031173792232721</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.2546233019765225</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1507968695235036</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.3002605909365485</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.9499244534754896</v>
-      </c>
-      <c r="K23">
-        <v>0.1502605919365436</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>-1.109469040070934</v>
+      </c>
+      <c r="C24">
         <v>-0.7240674734835977</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-2.15213931730672</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.2240674734835977</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-1.026359238212379</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-1.278951366396669</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.8735311948966427</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-0.7240674734835977</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-1.974252517895636</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.8740674724836026</v>
-      </c>
-      <c r="K24">
-        <v>-1.224067473483615</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,31 +1405,31 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.3854015665873362</v>
+      </c>
+      <c r="C25">
         <v>-1.042670277235786</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.8854015665873363</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.08310980185855499</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.1694823263257348</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.2359378451742913</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.3854015665873362</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.8647834778247019</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.2354015675873313</v>
-      </c>
-      <c r="J25">
-        <v>-0.1145984334126808</v>
       </c>
       <c r="K25">
         <v>-0.1145984334126808</v>
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-1.428071843823122</v>
+      </c>
+      <c r="C26">
         <v>0.5</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-0.3022917647287812</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.5548838929130711</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.1494637214130449</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-1.250185044412038</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-0.1499999990000049</v>
-      </c>
-      <c r="I26">
-        <v>-0.5000000000000171</v>
       </c>
       <c r="J26">
         <v>-0.5000000000000171</v>
       </c>
       <c r="K26">
-        <v>-0.5999999999999972</v>
+        <v>-0.5000000000000171</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>1.928071843823122</v>
+      </c>
+      <c r="C27">
         <v>1.125780079094341</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.8731879509100511</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.278608122410077</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.428071843823122</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.177886799411084</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.278071844823117</v>
-      </c>
-      <c r="H27">
-        <v>0.928071843823105</v>
       </c>
       <c r="I27">
         <v>0.928071843823105</v>
       </c>
       <c r="J27">
+        <v>0.928071843823105</v>
+      </c>
+      <c r="K27">
         <v>0.8280718438231249</v>
-      </c>
-      <c r="K27">
-        <v>2.428071843823119</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>-0.8022917647287813</v>
+      </c>
+      <c r="C28">
         <v>-1.054883892913071</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.6494637214130449</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-0.5</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-1.750185044412038</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0.6499999990000049</v>
-      </c>
-      <c r="G28">
-        <v>-1.000000000000017</v>
       </c>
       <c r="H28">
         <v>-1.000000000000017</v>
       </c>
       <c r="I28">
+        <v>-1.000000000000017</v>
+      </c>
+      <c r="J28">
         <v>-1.099999999999997</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.4999999999999972</v>
-      </c>
-      <c r="K28">
-        <v>-0.7999999999999858</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.2525921281842898</v>
+      </c>
+      <c r="C29">
         <v>0.1528280433157364</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.3022917647287812</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-0.9478932796832569</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.1522917657287763</v>
-      </c>
-      <c r="F29">
-        <v>-0.1977082352712358</v>
       </c>
       <c r="G29">
         <v>-0.1977082352712358</v>
       </c>
       <c r="H29">
+        <v>-0.1977082352712358</v>
+      </c>
+      <c r="I29">
         <v>-0.2977082352712159</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.302291764728778</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.002291764728795442</v>
-      </c>
-      <c r="K29">
-        <v>0.5022917647287528</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.4054201715000261</v>
+      </c>
+      <c r="C30">
         <v>0.5548838929130711</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-0.6953011514989671</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.4048838939130661</v>
-      </c>
-      <c r="E30">
-        <v>0.05488389291305396</v>
       </c>
       <c r="F30">
         <v>0.05488389291305396</v>
       </c>
       <c r="G30">
+        <v>0.05488389291305396</v>
+      </c>
+      <c r="H30">
         <v>-0.04511610708692615</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.554883892913068</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.2548838929130852</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.7548838929130426</v>
-      </c>
-      <c r="K30">
-        <v>0.2548838929130568</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>0.1494637214130449</v>
+      </c>
+      <c r="C31">
         <v>-1.100721322998993</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-0.00053627758696001</v>
-      </c>
-      <c r="D31">
-        <v>-0.3505362785869722</v>
       </c>
       <c r="E31">
         <v>-0.3505362785869722</v>
       </c>
       <c r="F31">
+        <v>-0.3505362785869722</v>
+      </c>
+      <c r="G31">
         <v>-0.4505362785869523</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.149463721413042</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.1505362785869409</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.3494637214130165</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.1505362785869693</v>
-      </c>
-      <c r="K31">
-        <v>-0.3505362785869722</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>-1.250185044412038</v>
+      </c>
+      <c r="C32">
         <v>-0.1499999990000049</v>
-      </c>
-      <c r="C32">
-        <v>-0.5000000000000171</v>
       </c>
       <c r="D32">
         <v>-0.5000000000000171</v>
       </c>
       <c r="E32">
+        <v>-0.5000000000000171</v>
+      </c>
+      <c r="F32">
         <v>-0.5999999999999972</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.9999999999999971</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.2999999999999858</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.1999999999999716</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.3000000000000142</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.5000000000000171</v>
-      </c>
-      <c r="K32">
-        <v>1.199999999999986</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.3500000010000122</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>-0.3500000010000122</v>
       </c>
       <c r="D33">
+        <v>-0.3500000010000122</v>
+      </c>
+      <c r="E33">
         <v>-0.4500000009999923</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.149999999000002</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.1500000009999809</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.3499999989999765</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.1500000010000093</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.3500000010000122</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1.349999998999991</v>
-      </c>
-      <c r="K33">
-        <v>0.8499999990000049</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1723,31 +1723,31 @@
         <v>0</v>
       </c>
       <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>-0.0999999999999801</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.500000000000014</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.2000000000000313</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.6999999999999886</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.2000000000000028</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1.700000000000003</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1.200000000000017</v>
-      </c>
-      <c r="K34">
-        <v>-2.09999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>-0.0999999999999801</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.500000000000014</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.2000000000000313</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.6999999999999886</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.2000000000000028</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.700000000000003</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1.200000000000017</v>
-      </c>
-      <c r="J35">
-        <v>-2.09999999999998</v>
-      </c>
-      <c r="K35">
-        <v>0.7000000000000171</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>1.599999999999994</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.3000000000000114</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.7999999999999687</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.2999999999999829</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.0999999999999801</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1.799999999999983</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.299999999999997</v>
-      </c>
-      <c r="I36">
-        <v>-2</v>
-      </c>
-      <c r="J36">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K36">
-        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>-1.299999999999983</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-0.8000000000000256</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-1.300000000000011</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-1.500000000000014</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.1999999999999886</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-0.2999999999999972</v>
-      </c>
-      <c r="H37">
-        <v>-3.599999999999994</v>
-      </c>
-      <c r="I37">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J37">
-        <v>-1</v>
-      </c>
-      <c r="K37">
-        <v>-0.7000000000000028</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>0.4999999999999574</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-2.842170943040401E-14</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.2000000000000313</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1.499999999999972</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.9999999999999858</v>
-      </c>
-      <c r="G38">
-        <v>-2.300000000000011</v>
-      </c>
-      <c r="H38">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="I38">
-        <v>0.299999999999983</v>
-      </c>
-      <c r="J38">
-        <v>0.5999999999999801</v>
-      </c>
-      <c r="K38">
-        <v>0.299999999999983</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>-0.4999999999999858</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.6999999999999886</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.000000000000014</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.5000000000000284</v>
-      </c>
-      <c r="F39">
-        <v>-2.799999999999969</v>
-      </c>
-      <c r="G39">
-        <v>2.842170943040401E-14</v>
-      </c>
-      <c r="H39">
-        <v>-0.1999999999999744</v>
-      </c>
-      <c r="I39">
-        <v>0.1000000000000227</v>
-      </c>
-      <c r="J39">
-        <v>-0.1999999999999744</v>
-      </c>
-      <c r="K39">
-        <v>-0.09999999999996589</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.5</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.000000000000014</v>
-      </c>
-      <c r="E40">
-        <v>-2.299999999999983</v>
-      </c>
-      <c r="F40">
-        <v>0.5000000000000142</v>
-      </c>
-      <c r="G40">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="H40">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="I40">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J40">
-        <v>0.4000000000000199</v>
-      </c>
-      <c r="K40">
-        <v>0.4000000000000199</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>1.700000000000003</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.200000000000017</v>
-      </c>
-      <c r="D41">
-        <v>-2.09999999999998</v>
-      </c>
-      <c r="E41">
-        <v>0.7000000000000171</v>
-      </c>
-      <c r="F41">
-        <v>0.5000000000000142</v>
-      </c>
-      <c r="G41">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="H41">
-        <v>0.5000000000000142</v>
-      </c>
-      <c r="I41">
-        <v>0.6000000000000227</v>
-      </c>
-      <c r="J41">
-        <v>0.6000000000000227</v>
-      </c>
-      <c r="K41">
-        <v>0.7000000000000171</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>-0.4999999999999858</v>
-      </c>
-      <c r="C42">
-        <v>-3.799999999999983</v>
-      </c>
-      <c r="D42">
-        <v>-0.9999999999999858</v>
-      </c>
-      <c r="E42">
-        <v>-1.199999999999989</v>
-      </c>
-      <c r="F42">
-        <v>-0.8999999999999915</v>
-      </c>
-      <c r="G42">
-        <v>-1.199999999999989</v>
-      </c>
-      <c r="H42">
-        <v>-1.09999999999998</v>
-      </c>
-      <c r="I42">
-        <v>-1.09999999999998</v>
-      </c>
-      <c r="J42">
-        <v>-0.9999999999999858</v>
-      </c>
-      <c r="K42">
-        <v>-1.499999999999972</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-3.299999999999997</v>
-      </c>
-      <c r="C43">
-        <v>-0.5</v>
-      </c>
-      <c r="D43">
-        <v>-0.7000000000000028</v>
-      </c>
-      <c r="E43">
-        <v>-0.4000000000000057</v>
-      </c>
-      <c r="F43">
-        <v>-0.7000000000000028</v>
-      </c>
-      <c r="G43">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="H43">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="I43">
-        <v>-0.5</v>
-      </c>
-      <c r="J43">
-        <v>-0.9999999999999858</v>
-      </c>
-      <c r="K43">
-        <v>-0.9000000000000199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="C44">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="D44">
-        <v>2.899999999999991</v>
-      </c>
-      <c r="E44">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="F44">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="G44">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="H44">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="I44">
-        <v>2.300000000000011</v>
-      </c>
-      <c r="J44">
-        <v>2.399999999999977</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="C45">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="D45">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="E45">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="F45">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>-0.4999999999999858</v>
-      </c>
-      <c r="I45">
-        <v>-0.4000000000000199</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.2999999999999971</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="E46">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="F46">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G46">
-        <v>-0.299999999999983</v>
-      </c>
-      <c r="H46">
-        <v>-0.2000000000000171</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.2999999999999971</v>
-      </c>
-      <c r="C47">
-        <v>-0.1999999999999886</v>
-      </c>
-      <c r="D47">
-        <v>-0.1999999999999886</v>
-      </c>
-      <c r="E47">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="F47">
-        <v>-0.5999999999999801</v>
-      </c>
-      <c r="G47">
-        <v>-0.5000000000000142</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="C48">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="D48">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="E48">
-        <v>-0.299999999999983</v>
-      </c>
-      <c r="F48">
-        <v>-0.2000000000000171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="D49">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="E49">
-        <v>-0.3000000000000256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="C50">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="D50">
-        <v>-0.3000000000000256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.4999999999999858</v>
-      </c>
-      <c r="C51">
-        <v>-0.4000000000000199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>0.09999999999996589</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>-1.974252517895636</v>
       </c>
       <c r="K24">
-        <v>-0.8740674724836026</v>
+        <v>-1.284357670755455</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>-0.8647834778247019</v>
       </c>
       <c r="J25">
-        <v>0.2354015675873313</v>
+        <v>-0.1748886306845208</v>
       </c>
       <c r="K25">
-        <v>-0.1145984334126808</v>
+        <v>1.091677354385908</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>-1.250185044412038</v>
       </c>
       <c r="I26">
-        <v>-0.1499999990000049</v>
+        <v>-0.560290197271857</v>
       </c>
       <c r="J26">
-        <v>-0.5000000000000171</v>
+        <v>0.7062757877985717</v>
       </c>
       <c r="K26">
-        <v>-0.5000000000000171</v>
+        <v>8.545046978308823E-06</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>0.177886799411084</v>
       </c>
       <c r="H27">
-        <v>1.278071844823117</v>
+        <v>0.8677816465512651</v>
       </c>
       <c r="I27">
-        <v>0.928071843823105</v>
+        <v>2.134347631621694</v>
       </c>
       <c r="J27">
-        <v>0.928071843823105</v>
+        <v>1.4280803888701</v>
       </c>
       <c r="K27">
-        <v>0.8280718438231249</v>
+        <v>-0.181580002546667</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>-1.750185044412038</v>
       </c>
       <c r="G28">
-        <v>-0.6499999990000049</v>
+        <v>-1.060290197271857</v>
       </c>
       <c r="H28">
-        <v>-1.000000000000017</v>
+        <v>0.2062757877985718</v>
       </c>
       <c r="I28">
-        <v>-1.000000000000017</v>
+        <v>-0.4999914549530217</v>
       </c>
       <c r="J28">
-        <v>-1.099999999999997</v>
+        <v>-2.109651846369789</v>
       </c>
       <c r="K28">
-        <v>0.4999999999999972</v>
+        <v>1.918509177329452</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>-0.9478932796832569</v>
       </c>
       <c r="F29">
-        <v>0.1522917657287763</v>
+        <v>-0.2579984325430758</v>
       </c>
       <c r="G29">
-        <v>-0.1977082352712358</v>
+        <v>1.008567552527353</v>
       </c>
       <c r="H29">
-        <v>-0.1977082352712358</v>
+        <v>0.3023003097757595</v>
       </c>
       <c r="I29">
-        <v>-0.2977082352712159</v>
+        <v>-1.307360081641008</v>
       </c>
       <c r="J29">
-        <v>1.302291764728778</v>
+        <v>2.720800942058233</v>
       </c>
       <c r="K29">
-        <v>0.002291764728795442</v>
+        <v>-0.4557938899696836</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>-0.6953011514989671</v>
       </c>
       <c r="E30">
-        <v>0.4048838939130661</v>
+        <v>-0.005406304358785974</v>
       </c>
       <c r="F30">
-        <v>0.05488389291305396</v>
+        <v>1.261159680711643</v>
       </c>
       <c r="G30">
-        <v>0.05488389291305396</v>
+        <v>0.5548924379600493</v>
       </c>
       <c r="H30">
-        <v>-0.04511610708692615</v>
+        <v>-1.054767953456718</v>
       </c>
       <c r="I30">
-        <v>1.554883892913068</v>
+        <v>2.973393070242523</v>
       </c>
       <c r="J30">
-        <v>0.2548838929130852</v>
+        <v>-0.2032017617853938</v>
       </c>
       <c r="K30">
-        <v>0.7548838929130426</v>
+        <v>0.6864325751146225</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>-1.100721322998993</v>
       </c>
       <c r="D31">
-        <v>-0.00053627758696001</v>
+        <v>-0.4108264758588121</v>
       </c>
       <c r="E31">
-        <v>-0.3505362785869722</v>
+        <v>0.8557395092116167</v>
       </c>
       <c r="F31">
-        <v>-0.3505362785869722</v>
+        <v>0.1494722664600232</v>
       </c>
       <c r="G31">
-        <v>-0.4505362785869523</v>
+        <v>-1.460188124956744</v>
       </c>
       <c r="H31">
-        <v>1.149463721413042</v>
+        <v>2.567972898742497</v>
       </c>
       <c r="I31">
-        <v>-0.1505362785869409</v>
+        <v>-0.6086219332854199</v>
       </c>
       <c r="J31">
-        <v>0.3494637214130165</v>
+        <v>0.2810124036145964</v>
       </c>
       <c r="K31">
-        <v>-0.1505362785869693</v>
+        <v>-1.994615918782514</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>-1.250185044412038</v>
       </c>
       <c r="C32">
-        <v>-0.1499999990000049</v>
+        <v>-0.560290197271857</v>
       </c>
       <c r="D32">
-        <v>-0.5000000000000171</v>
+        <v>0.7062757877985717</v>
       </c>
       <c r="E32">
-        <v>-0.5000000000000171</v>
+        <v>8.545046978308823E-06</v>
       </c>
       <c r="F32">
-        <v>-0.5999999999999972</v>
+        <v>-1.609651846369789</v>
       </c>
       <c r="G32">
-        <v>0.9999999999999971</v>
+        <v>2.418509177329452</v>
       </c>
       <c r="H32">
-        <v>-0.2999999999999858</v>
+        <v>-0.7580856546984649</v>
       </c>
       <c r="I32">
-        <v>0.1999999999999716</v>
+        <v>0.1315486822015515</v>
       </c>
       <c r="J32">
-        <v>-0.3000000000000142</v>
+        <v>-2.144079640195559</v>
       </c>
       <c r="K32">
-        <v>-0.5000000000000171</v>
+        <v>0.2000055876513443</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.6898948471401811</v>
       </c>
       <c r="C33">
-        <v>-0.3500000010000122</v>
+        <v>1.95646083221061</v>
       </c>
       <c r="D33">
-        <v>-0.3500000010000122</v>
+        <v>1.250193589459016</v>
       </c>
       <c r="E33">
-        <v>-0.4500000009999923</v>
+        <v>-0.3594668019577509</v>
       </c>
       <c r="F33">
-        <v>1.149999999000002</v>
+        <v>3.66869422174149</v>
       </c>
       <c r="G33">
-        <v>-0.1500000009999809</v>
+        <v>0.4920993897135733</v>
       </c>
       <c r="H33">
-        <v>0.3499999989999765</v>
+        <v>1.38173372661359</v>
       </c>
       <c r="I33">
-        <v>-0.1500000010000093</v>
+        <v>-0.8938945957835209</v>
       </c>
       <c r="J33">
-        <v>-0.3500000010000122</v>
+        <v>1.450190632063382</v>
       </c>
       <c r="K33">
-        <v>1.349999998999991</v>
+        <v>0.8268227261614813</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1.266565985070429</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.5602987423188353</v>
       </c>
       <c r="D34">
-        <v>-0.0999999999999801</v>
+        <v>-1.049361649097932</v>
       </c>
       <c r="E34">
-        <v>1.500000000000014</v>
+        <v>2.978799374601309</v>
       </c>
       <c r="F34">
-        <v>0.2000000000000313</v>
+        <v>-0.1977954574266079</v>
       </c>
       <c r="G34">
-        <v>0.6999999999999886</v>
+        <v>0.6918388794734085</v>
       </c>
       <c r="H34">
-        <v>0.2000000000000028</v>
+        <v>-1.583789442923702</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.7602957849232013</v>
       </c>
       <c r="J34">
-        <v>1.700000000000003</v>
+        <v>0.1369278790213002</v>
       </c>
       <c r="K34">
-        <v>1.200000000000017</v>
+        <v>5.647645974903085</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.7062672427515935</v>
       </c>
       <c r="C35">
-        <v>-0.0999999999999801</v>
+        <v>-2.315927634168361</v>
       </c>
       <c r="D35">
-        <v>1.500000000000014</v>
+        <v>1.71223338953088</v>
       </c>
       <c r="E35">
-        <v>0.2000000000000313</v>
+        <v>-1.464361442497037</v>
       </c>
       <c r="F35">
-        <v>0.6999999999999886</v>
+        <v>-0.5747271055970202</v>
       </c>
       <c r="G35">
-        <v>0.2000000000000028</v>
+        <v>-2.850355427994131</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-0.5062702001472275</v>
       </c>
       <c r="I35">
-        <v>1.700000000000003</v>
+        <v>-1.129638106049129</v>
       </c>
       <c r="J35">
-        <v>1.200000000000017</v>
+        <v>4.381079989832656</v>
+      </c>
+      <c r="K35">
+        <v>-0.5837405679867658</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-1.609660391416767</v>
       </c>
       <c r="C36">
-        <v>1.599999999999994</v>
+        <v>2.418500632282474</v>
       </c>
       <c r="D36">
-        <v>0.3000000000000114</v>
+        <v>-0.7580941997454431</v>
       </c>
       <c r="E36">
-        <v>0.7999999999999687</v>
+        <v>0.1315401371545732</v>
       </c>
       <c r="F36">
-        <v>0.2999999999999829</v>
+        <v>-2.144088185242537</v>
       </c>
       <c r="G36">
-        <v>0.0999999999999801</v>
+        <v>0.199997042604366</v>
       </c>
       <c r="H36">
-        <v>1.799999999999983</v>
+        <v>-0.423370863297535</v>
       </c>
       <c r="I36">
-        <v>1.299999999999997</v>
+        <v>5.08734723258425</v>
+      </c>
+      <c r="J36">
+        <v>0.1225266747648277</v>
+      </c>
+      <c r="K36">
+        <v>-0.0232082318966747</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4.028161023699241</v>
       </c>
       <c r="C37">
-        <v>-1.299999999999983</v>
+        <v>0.8515661916713242</v>
       </c>
       <c r="D37">
-        <v>-0.8000000000000256</v>
+        <v>1.741200528571341</v>
       </c>
       <c r="E37">
-        <v>-1.300000000000011</v>
+        <v>-0.53442779382577</v>
       </c>
       <c r="F37">
-        <v>-1.500000000000014</v>
+        <v>1.809657434021133</v>
       </c>
       <c r="G37">
-        <v>0.1999999999999886</v>
+        <v>1.186289528119232</v>
       </c>
       <c r="H37">
-        <v>-0.2999999999999972</v>
+        <v>6.697007624001017</v>
+      </c>
+      <c r="I37">
+        <v>1.732187066181595</v>
+      </c>
+      <c r="J37">
+        <v>1.586452159520093</v>
+      </c>
+      <c r="K37">
+        <v>1.462338942638652</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-3.176594832027917</v>
       </c>
       <c r="C38">
-        <v>0.4999999999999574</v>
+        <v>-2.286960495127901</v>
       </c>
       <c r="D38">
-        <v>-2.842170943040401E-14</v>
+        <v>-4.562588817525011</v>
       </c>
       <c r="E38">
-        <v>-0.2000000000000313</v>
+        <v>-2.218503589678108</v>
       </c>
       <c r="F38">
-        <v>1.499999999999972</v>
+        <v>-2.841871495580009</v>
       </c>
       <c r="G38">
-        <v>0.9999999999999858</v>
+        <v>2.668846600301776</v>
+      </c>
+      <c r="H38">
+        <v>-2.295973957517646</v>
+      </c>
+      <c r="I38">
+        <v>-2.441708864179148</v>
+      </c>
+      <c r="J38">
+        <v>-2.565822081060589</v>
+      </c>
+      <c r="K38">
+        <v>-1.791630897729207</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.8896343369000164</v>
       </c>
       <c r="C39">
-        <v>-0.4999999999999858</v>
+        <v>-1.385993985497094</v>
       </c>
       <c r="D39">
-        <v>-0.6999999999999886</v>
+        <v>0.9580912423498091</v>
       </c>
       <c r="E39">
-        <v>1.000000000000014</v>
+        <v>0.3347233364479081</v>
       </c>
       <c r="F39">
-        <v>0.5000000000000284</v>
+        <v>5.845441432329693</v>
+      </c>
+      <c r="G39">
+        <v>0.8806208745102708</v>
+      </c>
+      <c r="H39">
+        <v>0.7348859678487685</v>
+      </c>
+      <c r="I39">
+        <v>0.6107727509673282</v>
+      </c>
+      <c r="J39">
+        <v>1.38496393429871</v>
+      </c>
+      <c r="K39">
+        <v>-0.07658964140479418</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-2.275628322397111</v>
       </c>
       <c r="C40">
-        <v>-0.2000000000000028</v>
+        <v>0.06845690544979277</v>
       </c>
       <c r="D40">
-        <v>1.5</v>
+        <v>-0.5549110004521083</v>
       </c>
       <c r="E40">
-        <v>1.000000000000014</v>
+        <v>4.955807095429677</v>
+      </c>
+      <c r="F40">
+        <v>-0.009013462389745541</v>
+      </c>
+      <c r="G40">
+        <v>-0.1547483690512479</v>
+      </c>
+      <c r="H40">
+        <v>-0.2788615859326882</v>
+      </c>
+      <c r="I40">
+        <v>0.495329597398694</v>
+      </c>
+      <c r="J40">
+        <v>-0.9662239783048105</v>
+      </c>
+      <c r="K40">
+        <v>-0.3659156202749045</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2.344085227846903</v>
       </c>
       <c r="C41">
-        <v>1.700000000000003</v>
+        <v>1.720717321945002</v>
       </c>
       <c r="D41">
-        <v>1.200000000000017</v>
+        <v>7.231435417826788</v>
+      </c>
+      <c r="E41">
+        <v>2.266614860007365</v>
+      </c>
+      <c r="F41">
+        <v>2.120879953345863</v>
+      </c>
+      <c r="G41">
+        <v>1.996766736464422</v>
+      </c>
+      <c r="H41">
+        <v>2.770957919795805</v>
+      </c>
+      <c r="I41">
+        <v>1.3094043440923</v>
+      </c>
+      <c r="J41">
+        <v>1.909712702122206</v>
+      </c>
+      <c r="K41">
+        <v>1.928070503448779</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-0.6233679059019011</v>
       </c>
       <c r="C42">
-        <v>-0.4999999999999858</v>
+        <v>4.887350189979884</v>
+      </c>
+      <c r="D42">
+        <v>-0.07747036783953831</v>
+      </c>
+      <c r="E42">
+        <v>-0.2232052745010407</v>
+      </c>
+      <c r="F42">
+        <v>-0.347318491382481</v>
+      </c>
+      <c r="G42">
+        <v>0.4268726919489012</v>
+      </c>
+      <c r="H42">
+        <v>-1.034680883754603</v>
+      </c>
+      <c r="I42">
+        <v>-0.4343725257246973</v>
+      </c>
+      <c r="J42">
+        <v>-0.4160147243981243</v>
+      </c>
+      <c r="K42">
+        <v>0.3423398389707444</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>5.510718095881785</v>
+      </c>
+      <c r="C43">
+        <v>0.5458975380623627</v>
+      </c>
+      <c r="D43">
+        <v>0.4001626314008604</v>
+      </c>
+      <c r="E43">
+        <v>0.2760494145194201</v>
+      </c>
+      <c r="F43">
+        <v>1.050240597850802</v>
+      </c>
+      <c r="G43">
+        <v>-0.4113129778527023</v>
+      </c>
+      <c r="H43">
+        <v>0.1889953801772037</v>
+      </c>
+      <c r="I43">
+        <v>0.2073531815037768</v>
+      </c>
+      <c r="J43">
+        <v>0.9657077448726454</v>
+      </c>
+      <c r="K43">
+        <v>-0.1685777075333164</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-4.964820557819422</v>
+      </c>
+      <c r="C44">
+        <v>-5.110555464480925</v>
+      </c>
+      <c r="D44">
+        <v>-5.234668681362365</v>
+      </c>
+      <c r="E44">
+        <v>-4.460477498030983</v>
+      </c>
+      <c r="F44">
+        <v>-5.922031073734487</v>
+      </c>
+      <c r="G44">
+        <v>-5.321722715704581</v>
+      </c>
+      <c r="H44">
+        <v>-5.303364914378008</v>
+      </c>
+      <c r="I44">
+        <v>-4.54501035100914</v>
+      </c>
+      <c r="J44">
+        <v>-5.679295803415101</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.1457349066615024</v>
+      </c>
+      <c r="C45">
+        <v>-0.2698481235429427</v>
+      </c>
+      <c r="D45">
+        <v>0.5043430597884395</v>
+      </c>
+      <c r="E45">
+        <v>-0.957210515915065</v>
+      </c>
+      <c r="F45">
+        <v>-0.356902157885159</v>
+      </c>
+      <c r="G45">
+        <v>-0.3385443565585859</v>
+      </c>
+      <c r="H45">
+        <v>0.4198102068102827</v>
+      </c>
+      <c r="I45">
+        <v>-0.7144752455956791</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.1241132168814403</v>
+      </c>
+      <c r="C46">
+        <v>0.6500779664499419</v>
+      </c>
+      <c r="D46">
+        <v>-0.8114756092535627</v>
+      </c>
+      <c r="E46">
+        <v>-0.2111672512236566</v>
+      </c>
+      <c r="F46">
+        <v>-0.1928094498970836</v>
+      </c>
+      <c r="G46">
+        <v>0.5655451134717852</v>
+      </c>
+      <c r="H46">
+        <v>-0.5687403389341767</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>0.7741911833313821</v>
+      </c>
+      <c r="C47">
+        <v>-0.6873623923721224</v>
+      </c>
+      <c r="D47">
+        <v>-0.08705403434221631</v>
+      </c>
+      <c r="E47">
+        <v>-0.06869623301564326</v>
+      </c>
+      <c r="F47">
+        <v>0.6896583303532254</v>
+      </c>
+      <c r="G47">
+        <v>-0.4446271220527364</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>-1.461553575703505</v>
+      </c>
+      <c r="C48">
+        <v>-0.8612452176735985</v>
+      </c>
+      <c r="D48">
+        <v>-0.8428874163470255</v>
+      </c>
+      <c r="E48">
+        <v>-0.08453285297815677</v>
+      </c>
+      <c r="F48">
+        <v>-1.218818305384119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0.600308358029906</v>
+      </c>
+      <c r="C49">
+        <v>0.6186661593564791</v>
+      </c>
+      <c r="D49">
+        <v>1.377020722725348</v>
+      </c>
+      <c r="E49">
+        <v>0.2427352703193859</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.01835780132657305</v>
+      </c>
+      <c r="C50">
+        <v>0.7767123646954417</v>
+      </c>
+      <c r="D50">
+        <v>-0.3575730877105201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0.7583545633688686</v>
+      </c>
+      <c r="C51">
+        <v>-0.3759308890370932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-1.134285452405962</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>0.01720404143503628</v>
       </c>
-      <c r="G2">
-        <v>-0.3100538206824979</v>
-      </c>
-      <c r="H2">
-        <v>-0.6353708564410852</v>
-      </c>
-      <c r="I2">
-        <v>-0.1761128276725259</v>
-      </c>
-      <c r="J2">
-        <v>0.1402096942404682</v>
-      </c>
-      <c r="K2">
-        <v>-1.129426994028932</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>1.455198896169406</v>
       </c>
-      <c r="I3">
-        <v>0.1855622079000059</v>
-      </c>
-      <c r="J3">
-        <v>2.348445131525253</v>
-      </c>
-      <c r="K3">
-        <v>0.136465539725549</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>1.008572157370708</v>
       </c>
-      <c r="G4">
-        <v>-0.261064530898693</v>
-      </c>
-      <c r="H4">
-        <v>1.901818392726554</v>
-      </c>
-      <c r="I4">
-        <v>-0.3101611990731499</v>
-      </c>
-      <c r="J4">
-        <v>0.9883993742951276</v>
-      </c>
-      <c r="K4">
-        <v>-0.479005331071932</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>0.4300907318473861</v>
       </c>
-      <c r="I5">
-        <v>-1.037313973519673</v>
-      </c>
-      <c r="J5">
-        <v>-0.3398472268829806</v>
-      </c>
-      <c r="K5">
-        <v>-0.3006781143542696</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>0.2961497388374141</v>
       </c>
-      <c r="G6">
-        <v>-1.171254966529645</v>
-      </c>
-      <c r="H6">
-        <v>-0.4737882198929526</v>
-      </c>
-      <c r="I6">
-        <v>-0.4346191073642416</v>
-      </c>
-      <c r="J6">
-        <v>-0.460303461432801</v>
-      </c>
-      <c r="K6">
-        <v>-0.07622823957730421</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>0.4930107049236054</v>
       </c>
-      <c r="I7">
-        <v>0.8770859267791022</v>
-      </c>
-      <c r="J7">
-        <v>1.320056909062558</v>
-      </c>
-      <c r="K7">
-        <v>0.6986659511651963</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>0.5421073730980623</v>
       </c>
-      <c r="G8">
-        <v>0.9261825949535591</v>
-      </c>
-      <c r="H8">
-        <v>1.369153577237014</v>
-      </c>
-      <c r="I8">
-        <v>0.7477626193396532</v>
-      </c>
-      <c r="J8">
-        <v>0.979667729666474</v>
-      </c>
-      <c r="K8">
-        <v>1.262068277267502</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>1.148511861665256</v>
       </c>
-      <c r="I9">
-        <v>1.430912409266285</v>
-      </c>
-      <c r="J9">
-        <v>1.502657978535936</v>
-      </c>
-      <c r="K9">
-        <v>0.8365638983302266</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>0.4118760024998522</v>
       </c>
-      <c r="G10">
-        <v>0.6942765501008807</v>
-      </c>
-      <c r="H10">
-        <v>0.7660221193705326</v>
-      </c>
-      <c r="I10">
-        <v>0.09992803916482268</v>
-      </c>
-      <c r="J10">
-        <v>0.8977847383980873</v>
-      </c>
-      <c r="K10">
-        <v>0.1275780457620641</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.53939387061115</v>
       </c>
-      <c r="I11">
-        <v>-0.2308128220248733</v>
-      </c>
-      <c r="J11">
-        <v>-0.2513836965163705</v>
-      </c>
-      <c r="K11">
-        <v>-0.4425215418547026</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.717813846225056</v>
       </c>
-      <c r="G12">
-        <v>-0.05239284641096725</v>
-      </c>
-      <c r="H12">
-        <v>-0.0729637209024645</v>
-      </c>
-      <c r="I12">
-        <v>-0.2641015662407966</v>
-      </c>
-      <c r="J12">
-        <v>0.04706282414385055</v>
-      </c>
-      <c r="K12">
-        <v>-0.305631967414115</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-0.4672428337839989</v>
       </c>
-      <c r="I13">
-        <v>-0.8199376253419643</v>
-      </c>
-      <c r="J13">
-        <v>-0.8012380334023419</v>
-      </c>
-      <c r="K13">
-        <v>-1.39648317384345</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>0.1271056771520592</v>
       </c>
-      <c r="G14">
-        <v>-0.2255891144059063</v>
-      </c>
-      <c r="H14">
-        <v>-0.2068895224662838</v>
-      </c>
-      <c r="I14">
-        <v>-0.8021346629073915</v>
-      </c>
-      <c r="J14">
-        <v>-0.419620659263856</v>
-      </c>
-      <c r="K14">
-        <v>-0.01624058431245601</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>-0.4472706658610974</v>
       </c>
-      <c r="I15">
-        <v>-0.04389059090969744</v>
-      </c>
-      <c r="J15">
-        <v>-0.72653982710564</v>
-      </c>
-      <c r="K15">
-        <v>-0.5340400590977907</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-0.2355619460312681</v>
       </c>
-      <c r="G16">
-        <v>0.1678181289201319</v>
-      </c>
-      <c r="H16">
-        <v>-0.5148311072758107</v>
-      </c>
-      <c r="I16">
-        <v>-0.3223313392679614</v>
-      </c>
-      <c r="J16">
-        <v>0.3690112597899571</v>
-      </c>
-      <c r="K16">
-        <v>0.2181149356561036</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>0.4105416609632755</v>
       </c>
-      <c r="I17">
-        <v>0.259645336829422</v>
-      </c>
-      <c r="J17">
-        <v>0.5106320221846374</v>
-      </c>
-      <c r="K17">
-        <v>0.7141857632352213</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>0.7551219966432965</v>
       </c>
-      <c r="K18">
-        <v>1.779450061063443</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>-0.030772081951639</v>
       </c>
-      <c r="I19">
-        <v>0.9935559824685072</v>
-      </c>
-      <c r="J19">
-        <v>-0.1159130576024267</v>
-      </c>
-      <c r="K19">
-        <v>0.2694885089849095</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>-0.6684338666501193</v>
       </c>
-      <c r="K20">
-        <v>1.259637977173003</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>-1.208880141574184</v>
       </c>
-      <c r="I21">
-        <v>0.7191917022489378</v>
-      </c>
-      <c r="J21">
-        <v>-0.08310006247984342</v>
-      </c>
-      <c r="K21">
-        <v>-0.3356921906641332</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-0.3848124455699064</v>
       </c>
-      <c r="K22">
-        <v>-0.2353487241568615</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>0.1507968695235036</v>
       </c>
-      <c r="J23">
-        <v>0.3002605909365485</v>
-      </c>
-      <c r="K23">
-        <v>-0.9499244534754896</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>-0.8735311948966427</v>
       </c>
-      <c r="I24">
-        <v>-0.7240674734835977</v>
-      </c>
-      <c r="J24">
-        <v>-1.974252517895636</v>
-      </c>
-      <c r="K24">
-        <v>-1.284357670755455</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>0.7062757877985717</v>
       </c>
-      <c r="K26">
-        <v>8.545046978308823E-06</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>2.134347631621694</v>
       </c>
-      <c r="J27">
-        <v>1.4280803888701</v>
-      </c>
-      <c r="K27">
-        <v>-0.181580002546667</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>0.2062757877985718</v>
       </c>
-      <c r="I28">
-        <v>-0.4999914549530217</v>
-      </c>
-      <c r="J28">
-        <v>-2.109651846369789</v>
-      </c>
-      <c r="K28">
-        <v>1.918509177329452</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-0.2032017617853938</v>
       </c>
-      <c r="K30">
-        <v>0.6864325751146225</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-0.6086219332854199</v>
       </c>
-      <c r="J31">
-        <v>0.2810124036145964</v>
-      </c>
-      <c r="K31">
-        <v>-1.994615918782514</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-0.7580856546984649</v>
       </c>
-      <c r="I32">
-        <v>0.1315486822015515</v>
-      </c>
-      <c r="J32">
-        <v>-2.144079640195559</v>
-      </c>
-      <c r="K32">
-        <v>0.2000055876513443</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>0.1369278790213002</v>
       </c>
-      <c r="K34">
-        <v>5.647645974903085</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>-1.129638106049129</v>
       </c>
-      <c r="J35">
-        <v>4.381079989832656</v>
-      </c>
-      <c r="K35">
-        <v>-0.5837405679867658</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>-0.423370863297535</v>
       </c>
-      <c r="I36">
-        <v>5.08734723258425</v>
-      </c>
-      <c r="J36">
-        <v>0.1225266747648277</v>
-      </c>
-      <c r="K36">
-        <v>-0.0232082318966747</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>-2.565822081060589</v>
       </c>
-      <c r="K38">
-        <v>-1.791630897729207</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>0.6107727509673282</v>
       </c>
-      <c r="J39">
-        <v>1.38496393429871</v>
-      </c>
-      <c r="K39">
-        <v>-0.07658964140479418</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>-0.2788615859326882</v>
       </c>
-      <c r="I40">
-        <v>0.495329597398694</v>
-      </c>
-      <c r="J40">
-        <v>-0.9662239783048105</v>
-      </c>
-      <c r="K40">
-        <v>-0.3659156202749045</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>-0.4160147243981243</v>
       </c>
-      <c r="K42">
-        <v>0.3423398389707444</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>0.2073531815037768</v>
       </c>
-      <c r="J43">
-        <v>0.9657077448726454</v>
-      </c>
-      <c r="K43">
-        <v>-0.1685777075333164</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>-5.303364914378008</v>
-      </c>
-      <c r="I44">
-        <v>-4.54501035100914</v>
-      </c>
-      <c r="J44">
-        <v>-5.679295803415101</v>
       </c>
     </row>
     <row r="45" spans="1:11">
